--- a/tmp/log/DD_29022024.xlsx
+++ b/tmp/log/DD_29022024.xlsx
@@ -4,10 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,6 +549,516 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:17:34</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Inserted</t>
         </is>
       </c>
